--- a/results/I2_N10_T100_C275_0_P5_res.xlsx
+++ b/results/I2_N10_T100_C275_0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1310.214944151745</v>
+        <v>665.1125686385368</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01999998092651367</v>
+        <v>0.01800012588500977</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.88681369856157</v>
+        <v>50.56256919166783</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.828170918474254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.216301371661726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1114.559999999996</v>
+        <v>440.0799994468689</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.38</v>
+        <v>174.47</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -810,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -945,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1039,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.161018336715557</v>
+        <v>35.43983387113133</v>
       </c>
     </row>
     <row r="4">
@@ -1047,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36.09699127290008</v>
+        <v>34.33859424237852</v>
       </c>
     </row>
     <row r="5">
@@ -1055,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30.34885527085025</v>
+        <v>27.8846700740982</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37.83898166328444</v>
+        <v>41.48407906801076</v>
       </c>
     </row>
     <row r="7">
@@ -1079,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>38.68744466519142</v>
       </c>
     </row>
     <row r="9">
@@ -1087,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>33.99741166256366</v>
       </c>
     </row>
     <row r="10">
@@ -1095,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>35.52673167679941</v>
+        <v>38.86249131247691</v>
       </c>
     </row>
     <row r="11">
@@ -1103,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>31.94987179065701</v>
+        <v>28.59643311523818</v>
       </c>
     </row>
     <row r="12">
@@ -1111,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>32.01159140980466</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1119,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32.66758337047729</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1127,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>41.35490259527367</v>
+        <v>42.75608190549734</v>
       </c>
     </row>
     <row r="15">
@@ -1135,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>38.67747572354109</v>
+        <v>44.07879268413863</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,146 +1122,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>12</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1418,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>97.1700000000008</v>
+        <v>150.2950000000002</v>
       </c>
     </row>
     <row r="8">
@@ -1429,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.27000000000081</v>
+        <v>148.4950000000002</v>
       </c>
     </row>
     <row r="9">
@@ -1440,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>100.1150000000008</v>
+        <v>140.8650000000002</v>
       </c>
     </row>
     <row r="10">
@@ -1451,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>99.0400000000008</v>
+        <v>151.1300000000002</v>
       </c>
     </row>
     <row r="11">
@@ -1462,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>97.9800000000008</v>
+        <v>149.8</v>
       </c>
     </row>
     <row r="12">
@@ -1473,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>236.8400000000015</v>
+        <v>213.1800000000005</v>
       </c>
     </row>
     <row r="13">
@@ -1484,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>244.9650000000014</v>
+        <v>212.6550000000005</v>
       </c>
     </row>
     <row r="14">
@@ -1495,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>236.8400000000015</v>
+        <v>220.5800000000005</v>
       </c>
     </row>
     <row r="15">
@@ -1506,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>243.8100000000014</v>
+        <v>220.0600000000005</v>
       </c>
     </row>
     <row r="16">
@@ -1517,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>244.9650000000015</v>
+        <v>211.5400000000005</v>
       </c>
     </row>
     <row r="17">
@@ -1528,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>154.3</v>
+        <v>40.35</v>
       </c>
     </row>
     <row r="18">
@@ -1539,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>148.3449999999993</v>
+        <v>30.90499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1550,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7049999999993</v>
+        <v>27.59499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1561,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>146.3249999999993</v>
+        <v>31.97499999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1572,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>134.2149999999993</v>
+        <v>33.99499999999942</v>
       </c>
     </row>
     <row r="22">
@@ -1583,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>378.75</v>
+        <v>222.9249999999997</v>
       </c>
     </row>
     <row r="23">
@@ -1594,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>401.8849999999995</v>
+        <v>228.55</v>
       </c>
     </row>
     <row r="24">
@@ -1605,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>381.9599999999995</v>
+        <v>223.1849999999997</v>
       </c>
     </row>
     <row r="25">
@@ -1616,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>397.1899999999995</v>
+        <v>235.0849999999997</v>
       </c>
     </row>
     <row r="26">
@@ -1627,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>372.4949999999995</v>
+        <v>230.6149999999997</v>
       </c>
     </row>
     <row r="27">
@@ -1660,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>72.41000000000021</v>
+        <v>72.41000000000022</v>
       </c>
     </row>
     <row r="30">
@@ -1693,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.3799999999999</v>
+        <v>320.5600000000004</v>
       </c>
     </row>
     <row r="33">
@@ -1704,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.2399999999999</v>
+        <v>324.8950000000003</v>
       </c>
     </row>
     <row r="34">
@@ -1715,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>93.78999999999985</v>
+        <v>314.3700000000003</v>
       </c>
     </row>
     <row r="35">
@@ -1726,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>108.8349999999998</v>
+        <v>328.8950000000004</v>
       </c>
     </row>
     <row r="36">
@@ -1737,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>94.77999999999986</v>
+        <v>306.3200000000004</v>
       </c>
     </row>
     <row r="37">
@@ -1748,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>180.2450000000007</v>
+        <v>152.9550000000011</v>
       </c>
     </row>
     <row r="38">
@@ -1759,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>183.9900000000007</v>
+        <v>161.0400000000011</v>
       </c>
     </row>
     <row r="39">
@@ -1770,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.0900000000007</v>
+        <v>150.3850000000011</v>
       </c>
     </row>
     <row r="40">
@@ -1781,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>188.8100000000007</v>
+        <v>162.4150000000011</v>
       </c>
     </row>
     <row r="41">
@@ -1792,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>179.8350000000007</v>
+        <v>154.7450000000011</v>
       </c>
     </row>
     <row r="42">
@@ -1803,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>306.1199999999994</v>
+        <v>220.8800000000005</v>
       </c>
     </row>
     <row r="43">
@@ -1814,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>321.83</v>
+        <v>240.2</v>
       </c>
     </row>
     <row r="44">
@@ -1825,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>299.64</v>
+        <v>210.2050000000005</v>
       </c>
     </row>
     <row r="45">
@@ -1836,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>313.235</v>
+        <v>226.1850000000005</v>
       </c>
     </row>
     <row r="46">
@@ -1847,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>291.68</v>
+        <v>213.6750000000005</v>
       </c>
     </row>
     <row r="47">
@@ -1858,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>155.3650000000007</v>
+        <v>73.75500000000051</v>
       </c>
     </row>
     <row r="48">
@@ -1869,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>164.2850000000007</v>
+        <v>73.29500000000051</v>
       </c>
     </row>
     <row r="49">
@@ -1880,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>152.1250000000007</v>
+        <v>74.13500000000052</v>
       </c>
     </row>
     <row r="50">
@@ -1891,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>163.3750000000007</v>
+        <v>78.97000000000051</v>
       </c>
     </row>
     <row r="51">
@@ -1902,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>157.6200000000007</v>
+        <v>71.2800000000005</v>
       </c>
     </row>
     <row r="52">
@@ -1913,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>238.195</v>
+        <v>131.7049999999998</v>
       </c>
     </row>
     <row r="53">
@@ -1924,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>242.67</v>
+        <v>131.9749999999998</v>
       </c>
     </row>
     <row r="54">
@@ -1935,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>239.82</v>
+        <v>135.8649999999998</v>
       </c>
     </row>
     <row r="55">
@@ -1946,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>249.465</v>
+        <v>139.6249999999998</v>
       </c>
     </row>
     <row r="56">
@@ -1957,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>232.75</v>
+        <v>124.1949999999998</v>
       </c>
     </row>
     <row r="57">
@@ -1968,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>154.3</v>
+        <v>222.9249999999997</v>
       </c>
     </row>
     <row r="58">
@@ -1979,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>148.3449999999993</v>
+        <v>228.55</v>
       </c>
     </row>
     <row r="59">
@@ -1990,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>128.7049999999993</v>
+        <v>223.1849999999997</v>
       </c>
     </row>
     <row r="60">
@@ -2001,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>146.3249999999993</v>
+        <v>235.0849999999997</v>
       </c>
     </row>
     <row r="61">
@@ -2012,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>134.2149999999993</v>
+        <v>230.6149999999997</v>
       </c>
     </row>
     <row r="62">
@@ -2023,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>378.75</v>
+        <v>320.5600000000004</v>
       </c>
     </row>
     <row r="63">
@@ -2034,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>401.8849999999995</v>
+        <v>324.8950000000003</v>
       </c>
     </row>
     <row r="64">
@@ -2045,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>381.9599999999995</v>
+        <v>314.3700000000003</v>
       </c>
     </row>
     <row r="65">
@@ -2056,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>397.1899999999995</v>
+        <v>328.8950000000004</v>
       </c>
     </row>
     <row r="66">
@@ -2067,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>372.4949999999995</v>
+        <v>306.3200000000004</v>
       </c>
     </row>
     <row r="67">
@@ -2078,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>236.8400000000015</v>
+        <v>220.8800000000005</v>
       </c>
     </row>
     <row r="68">
@@ -2089,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>244.9650000000014</v>
+        <v>240.2</v>
       </c>
     </row>
     <row r="69">
@@ -2100,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>236.8400000000015</v>
+        <v>210.2050000000005</v>
       </c>
     </row>
     <row r="70">
@@ -2111,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>243.8100000000014</v>
+        <v>226.1850000000005</v>
       </c>
     </row>
     <row r="71">
@@ -2122,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>244.9650000000015</v>
+        <v>213.6750000000005</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.75</v>
+        <v>45.55999994277954</v>
       </c>
     </row>
     <row r="8">
@@ -2235,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>126.8849999999995</v>
+        <v>49.89499998092651</v>
       </c>
     </row>
     <row r="9">
@@ -2246,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>106.9599999999995</v>
+        <v>39.36999988555908</v>
       </c>
     </row>
     <row r="10">
@@ -2257,7 +2062,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>122.1899999999995</v>
+        <v>53.89499998092651</v>
       </c>
     </row>
     <row r="11">
@@ -2268,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>97.49499999999949</v>
+        <v>31.3199999332428</v>
       </c>
     </row>
     <row r="12">
@@ -2370,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>12.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2381,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2392,7 +2197,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>13.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2403,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>20.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2414,7 +2219,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2480,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="13">
@@ -2491,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="14">
@@ -2502,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="15">
@@ -2513,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5.515</v>
       </c>
     </row>
     <row r="16">
@@ -2524,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="17">
@@ -2810,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="43">
@@ -2821,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="44">
@@ -2832,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="45">
@@ -2843,7 +2648,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="46">
@@ -2854,7 +2659,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="47">
@@ -2923,7 +2728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2950,7 +2755,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2961,7 +2766,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2972,7 +2777,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2983,7 +2788,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2994,67 +2799,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>

--- a/results/I2_N10_T100_C275_0_P5_res.xlsx
+++ b/results/I2_N10_T100_C275_0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>665.1125686385368</v>
+        <v>454.0265791553488</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01800012588500977</v>
+        <v>0.01799988746643066</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.56256919166783</v>
+        <v>44.85657957496689</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>440.0799994468689</v>
+        <v>409.169999580382</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.47</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35.43983387113133</v>
+        <v>32.61068956408073</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.33859424237852</v>
+        <v>35.58932737017957</v>
       </c>
     </row>
     <row r="5">
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.8846700740982</v>
+        <v>40.16585336111386</v>
       </c>
     </row>
     <row r="6">
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41.48407906801076</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1016,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>32.8731167745151</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38.68744466519142</v>
+        <v>40.51470863196411</v>
       </c>
     </row>
     <row r="9">
@@ -1032,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>33.99741166256366</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38.86249131247691</v>
+        <v>35.6824320919698</v>
       </c>
     </row>
     <row r="11">
@@ -1048,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.59643311523818</v>
+        <v>33.22876137241512</v>
       </c>
     </row>
     <row r="12">
@@ -1064,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>45</v>
+        <v>38.16981182082058</v>
       </c>
     </row>
     <row r="14">
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>42.75608190549734</v>
+        <v>43.17977898750821</v>
       </c>
     </row>
     <row r="15">
@@ -1080,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>44.07879268413863</v>
+        <v>40.89873346363153</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>150.2950000000002</v>
+        <v>167.8950000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>148.4950000000002</v>
+        <v>176.2700000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>140.8650000000002</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10">
@@ -1256,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>151.1300000000002</v>
+        <v>179.8100000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1267,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.8</v>
+        <v>168.7200000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>213.1800000000005</v>
+        <v>223.9850000000004</v>
       </c>
     </row>
     <row r="13">
@@ -1289,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>212.6550000000005</v>
+        <v>237.0550000000005</v>
       </c>
     </row>
     <row r="14">
@@ -1300,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>220.5800000000005</v>
+        <v>239.4450000000004</v>
       </c>
     </row>
     <row r="15">
@@ -1311,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>220.0600000000005</v>
+        <v>237.0350000000004</v>
       </c>
     </row>
     <row r="16">
@@ -1322,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>211.5400000000005</v>
+        <v>241.05</v>
       </c>
     </row>
     <row r="17">
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>40.35</v>
+        <v>214.8149999999995</v>
       </c>
     </row>
     <row r="18">
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>30.90499999999942</v>
+        <v>212.3749999999995</v>
       </c>
     </row>
     <row r="19">
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>27.59499999999942</v>
+        <v>209.9149999999995</v>
       </c>
     </row>
     <row r="20">
@@ -1366,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>31.97499999999942</v>
+        <v>217.3</v>
       </c>
     </row>
     <row r="21">
@@ -1377,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>33.99499999999942</v>
+        <v>208.1549999999995</v>
       </c>
     </row>
     <row r="22">
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>222.9249999999997</v>
+        <v>72.62999999999948</v>
       </c>
     </row>
     <row r="23">
@@ -1399,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>228.55</v>
+        <v>80.0549999999995</v>
       </c>
     </row>
     <row r="24">
@@ -1410,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>223.1849999999997</v>
+        <v>82.3199999999995</v>
       </c>
     </row>
     <row r="25">
@@ -1421,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>235.0849999999997</v>
+        <v>83.95499999999949</v>
       </c>
     </row>
     <row r="26">
@@ -1432,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>230.6149999999997</v>
+        <v>80.81499999999949</v>
       </c>
     </row>
     <row r="27">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>69.88000000000022</v>
+        <v>142.5099999999997</v>
       </c>
     </row>
     <row r="28">
@@ -1454,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>76.32000000000022</v>
+        <v>156.3749999999997</v>
       </c>
     </row>
     <row r="29">
@@ -1465,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>72.41000000000022</v>
+        <v>154.7299999999997</v>
       </c>
     </row>
     <row r="30">
@@ -1476,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>72.64500000000022</v>
+        <v>156.6</v>
       </c>
     </row>
     <row r="31">
@@ -1487,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>72.89000000000021</v>
+        <v>153.7049999999997</v>
       </c>
     </row>
     <row r="32">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>320.5600000000004</v>
+        <v>322.1949999999994</v>
       </c>
     </row>
     <row r="33">
@@ -1509,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>324.8950000000003</v>
+        <v>324.6149999999993</v>
       </c>
     </row>
     <row r="34">
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>314.3700000000003</v>
+        <v>303.7049999999993</v>
       </c>
     </row>
     <row r="35">
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>328.8950000000004</v>
+        <v>326.1349999999994</v>
       </c>
     </row>
     <row r="36">
@@ -1542,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>306.3200000000004</v>
+        <v>302.9349999999994</v>
       </c>
     </row>
     <row r="37">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>152.9550000000011</v>
+        <v>83.07500000000087</v>
       </c>
     </row>
     <row r="38">
@@ -1564,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>161.0400000000011</v>
+        <v>84.72000000000088</v>
       </c>
     </row>
     <row r="39">
@@ -1575,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>150.3850000000011</v>
+        <v>77.97500000000088</v>
       </c>
     </row>
     <row r="40">
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>162.4150000000011</v>
+        <v>89.77000000000088</v>
       </c>
     </row>
     <row r="41">
@@ -1597,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>154.7450000000011</v>
+        <v>81.85500000000087</v>
       </c>
     </row>
     <row r="42">
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>220.8800000000005</v>
+        <v>236.4850000000008</v>
       </c>
     </row>
     <row r="43">
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>240.2</v>
+        <v>251.8450000000008</v>
       </c>
     </row>
     <row r="44">
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>210.2050000000005</v>
+        <v>217.5100000000008</v>
       </c>
     </row>
     <row r="45">
@@ -1641,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>226.1850000000005</v>
+        <v>244.2700000000008</v>
       </c>
     </row>
     <row r="46">
@@ -1652,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>213.6750000000005</v>
+        <v>225.5150000000008</v>
       </c>
     </row>
     <row r="47">
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>73.75500000000051</v>
+        <v>168.5600000000014</v>
       </c>
     </row>
     <row r="48">
@@ -1674,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>73.29500000000051</v>
+        <v>172.6850000000014</v>
       </c>
     </row>
     <row r="49">
@@ -1685,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>74.13500000000052</v>
+        <v>157.6900000000014</v>
       </c>
     </row>
     <row r="50">
@@ -1696,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>78.97000000000051</v>
+        <v>180.5</v>
       </c>
     </row>
     <row r="51">
@@ -1707,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>71.2800000000005</v>
+        <v>166.5850000000014</v>
       </c>
     </row>
     <row r="52">
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>131.7049999999998</v>
+        <v>57.95</v>
       </c>
     </row>
     <row r="53">
@@ -1729,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>131.9749999999998</v>
+        <v>58.67999999999927</v>
       </c>
     </row>
     <row r="54">
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>135.8649999999998</v>
+        <v>61.72999999999925</v>
       </c>
     </row>
     <row r="55">
@@ -1751,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>139.6249999999998</v>
+        <v>60.65499999999928</v>
       </c>
     </row>
     <row r="56">
@@ -1762,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>124.1949999999998</v>
+        <v>52.91499999999928</v>
       </c>
     </row>
     <row r="57">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>222.9249999999997</v>
+        <v>223.9850000000004</v>
       </c>
     </row>
     <row r="58">
@@ -1784,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>228.55</v>
+        <v>237.0550000000005</v>
       </c>
     </row>
     <row r="59">
@@ -1795,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>223.1849999999997</v>
+        <v>239.4450000000004</v>
       </c>
     </row>
     <row r="60">
@@ -1806,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>235.0849999999997</v>
+        <v>237.0350000000004</v>
       </c>
     </row>
     <row r="61">
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>230.6149999999997</v>
+        <v>241.05</v>
       </c>
     </row>
     <row r="62">
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>320.5600000000004</v>
+        <v>322.1949999999994</v>
       </c>
     </row>
     <row r="63">
@@ -1839,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>324.8950000000003</v>
+        <v>324.6149999999993</v>
       </c>
     </row>
     <row r="64">
@@ -1850,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>314.3700000000003</v>
+        <v>303.7049999999993</v>
       </c>
     </row>
     <row r="65">
@@ -1861,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>328.8950000000004</v>
+        <v>326.1349999999994</v>
       </c>
     </row>
     <row r="66">
@@ -1872,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>306.3200000000004</v>
+        <v>302.9349999999994</v>
       </c>
     </row>
     <row r="67">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>220.8800000000005</v>
+        <v>236.4850000000008</v>
       </c>
     </row>
     <row r="68">
@@ -1894,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>240.2</v>
+        <v>251.8450000000008</v>
       </c>
     </row>
     <row r="69">
@@ -1905,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>210.2050000000005</v>
+        <v>217.5100000000008</v>
       </c>
     </row>
     <row r="70">
@@ -1916,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>226.1850000000005</v>
+        <v>244.2700000000008</v>
       </c>
     </row>
     <row r="71">
@@ -1927,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>213.6750000000005</v>
+        <v>225.5150000000008</v>
       </c>
     </row>
   </sheetData>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>45.55999994277954</v>
+        <v>47.1949999332428</v>
       </c>
     </row>
     <row r="8">
@@ -2040,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>49.89499998092651</v>
+        <v>49.61499999999933</v>
       </c>
     </row>
     <row r="9">
@@ -2051,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>39.36999988555908</v>
+        <v>28.70499992370605</v>
       </c>
     </row>
     <row r="10">
@@ -2062,7 +2062,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.89499998092651</v>
+        <v>51.13499999046326</v>
       </c>
     </row>
     <row r="11">
@@ -2073,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>31.3199999332428</v>
+        <v>27.93499994277954</v>
       </c>
     </row>
     <row r="12">
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2296,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2307,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2318,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>5.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2329,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>11.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2626,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>14.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2637,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>5.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2648,7 +2648,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>11.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2659,7 +2659,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>13.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
